--- a/Project documentation/Test Template.xlsx
+++ b/Project documentation/Test Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\x00107570-4th-Year-ITT-IBM-Project\TestTEmplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\x00107570-4th-Year-ITT-IBM-Project\Project documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -516,7 +516,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -588,11 +588,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1983,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z965"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2060,8 +2063,8 @@
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
-        <v>100</v>
+      <c r="B3" s="27">
+        <v>0.96</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="13"/>
@@ -2092,8 +2095,8 @@
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
-        <v>0</v>
+      <c r="B4" s="27">
+        <v>0.04</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="13"/>
@@ -2125,7 +2128,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="13"/>
@@ -3189,15 +3192,15 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3219,7 +3222,7 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="264" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="25" t="s">
         <v>102</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -3259,7 +3262,7 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="196.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="25" t="s">
         <v>102</v>
       </c>
       <c r="B35" s="9" t="s">
